--- a/biology/Médecine/Campus_des_Quatre_vents/Campus_des_Quatre_vents.xlsx
+++ b/biology/Médecine/Campus_des_Quatre_vents/Campus_des_Quatre_vents.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Campus des Quatre vents est un des établissements associés aux centres jeunesse de Lanaudière[1]. Il héberge des enfants et adolescents aux prises avec des problématiques de santé mentale qui lui sont confiés par la Direction de la protection de la jeunesse (organisme dépendant du Ministère de la Santé et des Services sociaux du Québec) en vertu de la Loi sur la protection de la jeunesse[2]. Les Quatre vents est le seul établissement du genre au Québec et son expertise est reconnue internationalement[3][source insuffisante].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Campus des Quatre vents est un des établissements associés aux centres jeunesse de Lanaudière. Il héberge des enfants et adolescents aux prises avec des problématiques de santé mentale qui lui sont confiés par la Direction de la protection de la jeunesse (organisme dépendant du Ministère de la Santé et des Services sociaux du Québec) en vertu de la Loi sur la protection de la jeunesse. Les Quatre vents est le seul établissement du genre au Québec et son expertise est reconnue internationalement[source insuffisante].
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Emplacement géographique et installations physiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le centre des Quatre vents est aménagé dans une ancienne colonie de vacances à Saint-Donat, Québec (Canada), en bordure du lac Archambault. Les jeunes y sont installés dans trois pavillons dispersés sur le site et portant chacun le nom d’un vent, soit le Blizzard, le Chinook et le Mousson. Chacune de ces unités héberge un maximum de huit jeunes qui ont chacun leurs propres chambres. L’aménagement intérieur des unités est fait de manière à se rapprocher le plus possible d’une demeure familiale ordinaire. Aux Quatre vents, aucune porte n'est verrouillée, il s’agit d’un centre dit « ouvert ».
 La clientèle bénéficie des installations physiques de l’ancienne colonie de vacances : vastes terrains de jeux, plage baignable, canots, pédalos, plusieurs kilomètres de sentiers pédestre et de ski de fond. Les installations physiques sont un des aspects qui font des Quatre vents un établissement unique en son genre, offrant à sa clientèle un environnement beaucoup moins institutionnel que celui que l’on retrouve habituellement dans le réseau des centres jeunesse.
@@ -544,7 +558,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La première clientèle qui est accueillie aux Quatre vents est celle d’adolescents présentant des troubles du comportement, placés sous la Loi sur la protection de la jeunesse ou de la Loi sur le système de justice pénale pour les adolescents (anciennement Loi sur les jeunes contrevenants). Au fil des années, le centre accueille également de jeunes enfants présentant des troubles du comportement assez sévères pour que le placement en famille d'accueil se révèle insuffisant.
 C’est en 1998 que le centre reçoit sa vocation actuelle de ressource d’hébergement pour enfants et adolescents atteints de maladies mentales. Le concept est développé parce que plusieurs jeunes présentant ce type de troubles ne parvenaient pas à s’adapter au cadre plus rigide des unités traditionnelles et voyaient souvent leur état s’aggraver ou leurs séjours en pédopsychiatrie s’allonger ou se multiplier. Le centre se veut également une étape de transition entre le milieu hospitalier et le retour en milieu familial, ainsi qu'une alternative à l'hospitalisation en pédopsychiatrie. Le modèle d’intervention éducative des Quatre vents s'appuie sur les travaux du psychologue Gilles Gendreau et du pédopsychiatre Guy Ausloos.
@@ -578,9 +594,11 @@
           <t>Approches thérapeutiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Les principales problématiques rencontrées par les jeunes hébergés à Quatre vents sont[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les principales problématiques rencontrées par les jeunes hébergés à Quatre vents sont :
 Syndrome d’Asperger
 Psychose
 Trouble bipolaire de l’humeur
